--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_4_8.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_4_8.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1154951.956707123</v>
+        <v>-1156932.873287548</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2630451.06655359</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673437</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14755729.43696493</v>
+        <v>14764178.64187869</v>
       </c>
     </row>
     <row r="11">
@@ -659,10 +659,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>114.1239585223484</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -674,7 +674,7 @@
         <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>304.270218931142</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -722,7 +722,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -829,16 +829,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,19 +859,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>184.4424805593809</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>123.9004294058867</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -896,25 +896,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -956,13 +956,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>254.802090481842</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>10.08650120393117</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1054,28 +1054,28 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>146.6850513083904</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>6.220352074849088</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,13 +1096,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1136,13 +1136,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>142.3677314621552</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
@@ -1178,19 +1178,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>86.23085044538958</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>155.8860385675338</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>33.84234274505282</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1534,16 +1534,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1579,19 +1579,19 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>286.0652215257629</v>
       </c>
       <c r="V13" t="n">
-        <v>132.8441860085597</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>146.2787299119458</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>179.0556349746126</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>43.59416523277824</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>73.21532344290729</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2065,10 +2065,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2242,10 +2242,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2296,7 +2296,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>221.2306574774764</v>
+        <v>219.0491471058336</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2524,13 +2524,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>115.5269768002176</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151921</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2561,19 +2561,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274054</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051987</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2649,10 +2649,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H27" t="n">
-        <v>94.98542483262918</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014433</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2682,7 +2682,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T27" t="n">
         <v>192.9654699154601</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2770,13 +2770,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>169.7438101404425</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>161.40465200732</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2804,13 +2804,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274054</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051987</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2886,10 +2886,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H30" t="n">
-        <v>94.98542483262918</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014433</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2919,7 +2919,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T30" t="n">
         <v>192.9654699154601</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533806</v>
+        <v>124.6287235533803</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700712</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965568</v>
+        <v>93.41221638965531</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>91.23070601801213</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.2177913943742</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348209</v>
+        <v>111.2903118348205</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897943</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571524</v>
+        <v>7.502255247366584</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.761095775236</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550465</v>
+        <v>142.7175533550462</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298326</v>
+        <v>166.3443044298322</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700207</v>
+        <v>231.0340957700203</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952713</v>
+        <v>196.934386695271</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080343</v>
+        <v>231.319741708034</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604805</v>
+        <v>170.5063987604801</v>
       </c>
       <c r="Y31" t="n">
-        <v>36.60092856328221</v>
+        <v>163.3813967235378</v>
       </c>
     </row>
     <row r="32">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522975</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898714</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I34" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463135</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941868</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="35">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898714</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I37" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="38">
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3800,7 +3800,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898718</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D43" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G43" t="n">
         <v>98.36167833373695</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="44">
@@ -3989,13 +3989,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4068,13 +4068,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>134.9994691657081</v>
+        <v>135.5574116118565</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,16 +4101,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414547</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T45" t="n">
-        <v>190.7165703189231</v>
+        <v>192.9654699154601</v>
       </c>
       <c r="U45" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8238751368068</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>132.8568435633447</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>120.2716844800353</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D46" t="n">
-        <v>101.6403363996198</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E46" t="n">
-        <v>99.4588260279766</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433867</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G46" t="n">
-        <v>119.0506716404357</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572821</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124552</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145477</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S46" t="n">
-        <v>142.7938887128493</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T46" t="n">
-        <v>172.5738126575766</v>
+        <v>153.4156709287486</v>
       </c>
       <c r="U46" t="n">
-        <v>239.2367015870203</v>
+        <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>205.1625067052354</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W46" t="n">
-        <v>239.5478617179984</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X46" t="n">
-        <v>178.7345187704446</v>
+        <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>171.6095167335022</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1899.21241430279</v>
+        <v>1307.111989013772</v>
       </c>
       <c r="C2" t="n">
-        <v>1530.249897362378</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="D2" t="n">
-        <v>1171.984198755627</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="E2" t="n">
-        <v>786.1959461573831</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F2" t="n">
-        <v>375.2100413677755</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G2" t="n">
-        <v>361.2866373063665</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4328,13 +4328,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4358,22 +4358,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V2" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="W2" t="n">
-        <v>2289.351746278601</v>
+        <v>2070.717079250664</v>
       </c>
       <c r="X2" t="n">
-        <v>2289.351746278601</v>
+        <v>1697.251320989584</v>
       </c>
       <c r="Y2" t="n">
-        <v>1899.21241430279</v>
+        <v>1307.111989013772</v>
       </c>
     </row>
     <row r="3">
@@ -4398,7 +4398,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4407,31 +4407,31 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>393.6767897220517</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="C4" t="n">
-        <v>393.6767897220517</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="D4" t="n">
-        <v>393.6767897220517</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="E4" t="n">
-        <v>393.6767897220517</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="F4" t="n">
-        <v>393.6767897220517</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="G4" t="n">
-        <v>393.6767897220517</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545819</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406182</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S4" t="n">
-        <v>393.6767897220517</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="T4" t="n">
-        <v>393.6767897220517</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="U4" t="n">
-        <v>393.6767897220517</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="V4" t="n">
-        <v>393.6767897220517</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="W4" t="n">
-        <v>393.6767897220517</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="X4" t="n">
-        <v>393.6767897220517</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="Y4" t="n">
-        <v>393.6767897220517</v>
+        <v>359.2716929833838</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1233.603060210037</v>
+        <v>1299.526533804879</v>
       </c>
       <c r="C5" t="n">
-        <v>864.6405432696254</v>
+        <v>1299.526533804879</v>
       </c>
       <c r="D5" t="n">
-        <v>864.6405432696254</v>
+        <v>941.2608351981287</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.181128500977</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>1881.118241157406</v>
+        <v>1662.483574129469</v>
       </c>
       <c r="W5" t="n">
-        <v>1623.742392185849</v>
+        <v>1309.714918859355</v>
       </c>
       <c r="X5" t="n">
-        <v>1623.742392185849</v>
+        <v>1299.526533804879</v>
       </c>
       <c r="Y5" t="n">
-        <v>1233.603060210037</v>
+        <v>1299.526533804879</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4641,46 +4641,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>263.631062734689</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="C7" t="n">
-        <v>263.631062734689</v>
+        <v>351.9727148150932</v>
       </c>
       <c r="D7" t="n">
-        <v>263.631062734689</v>
+        <v>201.8560754027575</v>
       </c>
       <c r="E7" t="n">
-        <v>263.631062734689</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F7" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G7" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>484.4236418782191</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>484.4236418782191</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>484.4236418782191</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>484.4236418782191</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>484.4236418782191</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>484.4236418782191</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="Y7" t="n">
-        <v>263.631062734689</v>
+        <v>500.1394333084169</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>984.6750962183016</v>
+        <v>1206.080506218543</v>
       </c>
       <c r="C8" t="n">
-        <v>615.71257927789</v>
+        <v>837.1179892781315</v>
       </c>
       <c r="D8" t="n">
-        <v>615.71257927789</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E8" t="n">
-        <v>615.71257927789</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
         <v>471.9067899221776</v>
@@ -4802,19 +4802,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2610.047221881465</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2610.047221881465</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>2356.285436519557</v>
       </c>
       <c r="V8" t="n">
-        <v>2134.880026519315</v>
+        <v>2356.285436519557</v>
       </c>
       <c r="W8" t="n">
-        <v>2134.880026519315</v>
+        <v>2356.285436519557</v>
       </c>
       <c r="X8" t="n">
-        <v>1761.414268258235</v>
+        <v>1982.819678258477</v>
       </c>
       <c r="Y8" t="n">
-        <v>1371.274936282423</v>
+        <v>1592.680346282665</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,7 +4936,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C10" t="n">
         <v>53.94298182036445</v>
@@ -4990,22 +4990,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>500.820796875036</v>
+        <v>693.9447996154718</v>
       </c>
       <c r="U10" t="n">
-        <v>500.820796875036</v>
+        <v>693.9447996154718</v>
       </c>
       <c r="V10" t="n">
-        <v>500.820796875036</v>
+        <v>693.9447996154718</v>
       </c>
       <c r="W10" t="n">
-        <v>211.4036268380754</v>
+        <v>404.5276295785111</v>
       </c>
       <c r="X10" t="n">
-        <v>211.4036268380754</v>
+        <v>404.5276295785111</v>
       </c>
       <c r="Y10" t="n">
-        <v>211.4036268380754</v>
+        <v>404.5276295785111</v>
       </c>
     </row>
     <row r="11">
@@ -5024,25 +5024,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5057,7 +5057,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5118,25 +5118,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>562.3990000507114</v>
+        <v>692.5547804049818</v>
       </c>
       <c r="C13" t="n">
-        <v>562.3990000507114</v>
+        <v>692.5547804049818</v>
       </c>
       <c r="D13" t="n">
-        <v>412.2823606383756</v>
+        <v>542.438140992646</v>
       </c>
       <c r="E13" t="n">
-        <v>412.2823606383756</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404652</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028584</v>
@@ -5200,49 +5200,49 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688052</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799345</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471173</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974665</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980062</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585745</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557901</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557901</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557901</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347406</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>986.0022165609646</v>
+        <v>1209.96150133996</v>
       </c>
       <c r="V13" t="n">
-        <v>851.8161700876719</v>
+        <v>1209.96150133996</v>
       </c>
       <c r="W13" t="n">
-        <v>562.3990000507114</v>
+        <v>920.5443313029991</v>
       </c>
       <c r="X13" t="n">
-        <v>562.3990000507114</v>
+        <v>692.5547804049818</v>
       </c>
       <c r="Y13" t="n">
-        <v>562.3990000507114</v>
+        <v>692.5547804049818</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155881</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822463</v>
@@ -5279,7 +5279,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795207</v>
@@ -5288,7 +5288,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5297,28 +5297,28 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5373,10 +5373,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,7 +5410,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C16" t="n">
         <v>97.21709146028584</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1298.996260473455</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U16" t="n">
-        <v>1009.867621687013</v>
+        <v>675.0071030383441</v>
       </c>
       <c r="V16" t="n">
-        <v>755.1831334811259</v>
+        <v>675.0071030383441</v>
       </c>
       <c r="W16" t="n">
-        <v>465.7659634441652</v>
+        <v>494.1428252862101</v>
       </c>
       <c r="X16" t="n">
-        <v>465.7659634441652</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="Y16" t="n">
-        <v>244.9733843006351</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5498,28 +5498,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
@@ -5540,10 +5540,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U17" t="n">
         <v>4262.357857465301</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>773.1661474848153</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>604.2299645569084</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>604.2299645569084</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>456.3168709745153</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>309.4269234766049</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>141.2516017964255</v>
       </c>
       <c r="H19" t="n">
         <v>97.21709146028584</v>
@@ -5674,13 +5674,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5692,31 +5692,31 @@
         <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1313.886294955175</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T19" t="n">
-        <v>1090.100879744681</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U19" t="n">
-        <v>1090.100879744681</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V19" t="n">
-        <v>835.416391538794</v>
+        <v>1244.231782352016</v>
       </c>
       <c r="W19" t="n">
-        <v>545.9992215018333</v>
+        <v>954.814612315055</v>
       </c>
       <c r="X19" t="n">
-        <v>318.0096706038159</v>
+        <v>954.814612315055</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>954.814612315055</v>
       </c>
     </row>
     <row r="20">
@@ -5726,31 +5726,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155909</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823791</v>
       </c>
       <c r="K20" t="n">
         <v>889.2841917514085</v>
@@ -5765,37 +5765,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="21">
@@ -5817,37 +5817,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>549.5984374701561</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L21" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M21" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,13 +5884,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>245.130185042679</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C22" t="n">
-        <v>245.130185042679</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D22" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
         <v>97.21709146028584</v>
@@ -5911,13 +5911,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347408</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U22" t="n">
-        <v>986.0022165609664</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V22" t="n">
-        <v>762.5369059776569</v>
+        <v>764.7404518075996</v>
       </c>
       <c r="W22" t="n">
-        <v>473.1197359406963</v>
+        <v>475.3232817706389</v>
       </c>
       <c r="X22" t="n">
-        <v>245.130185042679</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="Y22" t="n">
-        <v>245.130185042679</v>
+        <v>247.3337308726216</v>
       </c>
     </row>
     <row r="23">
@@ -5975,49 +5975,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823761</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514058</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795204</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515095</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899125</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
         <v>4262.3578574653</v>
@@ -6054,34 +6054,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J24" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M24" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6166,31 +6166,31 @@
         <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1382.222354598087</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U25" t="n">
         <v>869.3083006011507</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952639</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W25" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
         <v>1701.09316900344</v>
@@ -6212,61 +6212,61 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823792</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514096</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795209</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.1647015151</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619132</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643329</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899133</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207836</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6288,37 +6288,37 @@
         <v>664.0438201101999</v>
       </c>
       <c r="E27" t="n">
-        <v>504.8063651047444</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316293</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358146</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675023</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126485</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571617</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636264</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643589</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307622</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.91651652632</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6388,46 +6388,46 @@
         <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
-        <v>507.497233179937</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471202</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974668</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980065</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585748</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557905</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557905</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557905</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347411</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U28" t="n">
-        <v>986.002216560969</v>
+        <v>786.0822064765189</v>
       </c>
       <c r="V28" t="n">
-        <v>731.3177283550822</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>441.9005583181216</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6449,34 +6449,34 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155885</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823792</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514096</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795209</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515093</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619125</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
         <v>4454.632848899126</v>
@@ -6488,7 +6488,7 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
@@ -6525,37 +6525,37 @@
         <v>664.0438201101999</v>
       </c>
       <c r="E30" t="n">
-        <v>504.8063651047444</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316293</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358146</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675023</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126485</v>
+        <v>233.7852434110083</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571617</v>
+        <v>644.675512255521</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636264</v>
+        <v>891.4406401619851</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643589</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307622</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.91651652632</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>567.5935089039651</v>
+        <v>494.8466681110224</v>
       </c>
       <c r="C31" t="n">
-        <v>454.4181912574286</v>
+        <v>494.8466681110224</v>
       </c>
       <c r="D31" t="n">
-        <v>360.0624171264632</v>
+        <v>400.490893980057</v>
       </c>
       <c r="E31" t="n">
-        <v>360.0624171264632</v>
+        <v>308.3386656790346</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264632</v>
+        <v>217.2095834624951</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276542</v>
+        <v>104.7951270636865</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569679</v>
+        <v>104.7951270636865</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J31" t="n">
-        <v>164.251007986467</v>
+        <v>164.2510079864672</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933499</v>
+        <v>369.0876362933502</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667506</v>
+        <v>671.4509053667509</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962048</v>
+        <v>997.6688721962053</v>
       </c>
       <c r="N31" t="n">
         <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353692</v>
+        <v>1611.390407353693</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021646</v>
+        <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056073</v>
+        <v>1936.126063056075</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899269</v>
+        <v>1936.126063056075</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096192</v>
+        <v>1791.966918252998</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167068</v>
+        <v>1623.942368323874</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356661997</v>
+        <v>1390.574594818803</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.33673373748</v>
+        <v>1191.650971894287</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818876</v>
+        <v>957.9946671386972</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652406</v>
+        <v>785.7659815220507</v>
       </c>
       <c r="Y31" t="n">
-        <v>693.4811084528344</v>
+        <v>620.7342676598912</v>
       </c>
     </row>
     <row r="32">
@@ -6698,28 +6698,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014293</v>
@@ -6786,19 +6786,19 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108338</v>
       </c>
       <c r="C34" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229679</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506732</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083211</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504518</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
@@ -6856,13 +6856,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525401</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649694</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6877,31 +6877,31 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T34" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
         <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862498</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045212</v>
+        <v>924.2611010045214</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010323</v>
+        <v>772.2886129010324</v>
       </c>
     </row>
     <row r="35">
@@ -6926,10 +6926,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H35" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028562</v>
@@ -7032,10 +7032,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108334</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229676</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D37" t="n">
-        <v>478.047598850673</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E37" t="n">
-        <v>398.954596308321</v>
+        <v>398.9545963083205</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504518</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103135</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028584</v>
@@ -7099,7 +7099,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7114,31 +7114,31 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T37" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.288612901032</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="38">
@@ -7166,37 +7166,37 @@
         <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7248,28 +7248,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982975</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525403</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649694</v>
       </c>
       <c r="M40" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N40" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116389</v>
       </c>
       <c r="O40" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T40" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045204</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="41">
@@ -7385,13 +7385,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7400,19 +7400,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7421,25 +7421,25 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
         <v>4262.3578574653</v>
@@ -7448,13 +7448,13 @@
         <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7485,16 +7485,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636247</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
         <v>1228.513823643586</v>
@@ -7506,10 +7506,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108319</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229665</v>
+        <v>559.3441472229661</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506719</v>
+        <v>478.0475988506714</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083199</v>
+        <v>398.9545963083197</v>
       </c>
       <c r="F43" t="n">
         <v>320.8847398504507</v>
@@ -7564,13 +7564,13 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
         <v>709.8489468649691</v>
@@ -7591,7 +7591,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
         <v>1865.165908942116</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862496</v>
       </c>
       <c r="X43" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045196</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010305</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2375.872413702068</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2006.909896761656</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1648.644198154905</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1262.855945556661</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>851.8700407670534</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>436.7975906120499</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>139.2139902208171</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>453.5018714396643</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>1108.225203574964</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1559.259416823373</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2092.791321495297</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>2639.57013855408</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
-        <v>3483.798167244623</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4197.153254691569</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4655.631457200557</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
-        <v>4779.707779431612</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4669.417110958707</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4463.439363342929</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4209.908886616766</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3878.845999273196</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3526.077344003081</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3152.611585742001</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
-        <v>2762.47225376619</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>972.2488295092107</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C45" t="n">
-        <v>797.7958002280837</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D45" t="n">
-        <v>648.8613905668326</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E45" t="n">
-        <v>489.623935561377</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>343.0893775882621</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>206.7262774208804</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>116.2243830587479</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>190.8943609509032</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>429.1585599312504</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>795.8567202439158</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1243.133045466232</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1716.656089020686</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2127.617368438741</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2438.116959914844</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2595.758517561444</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
-        <v>2595.614164153959</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S45" t="n">
-        <v>2466.176277647439</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T45" t="n">
-        <v>2273.533277325294</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U45" t="n">
-        <v>2045.46543045971</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V45" t="n">
-        <v>1810.313322227967</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W45" t="n">
-        <v>1556.075965499766</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X45" t="n">
-        <v>1348.224465294233</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y45" t="n">
-        <v>1140.464166529279</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>790.1712248333969</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C46" t="n">
-        <v>668.6846748535633</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D46" t="n">
-        <v>566.0176683893009</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E46" t="n">
-        <v>465.5542077549811</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F46" t="n">
-        <v>366.113893205144</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G46" t="n">
-        <v>245.860689527936</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
-        <v>147.0931356938672</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>188.8451091596279</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K46" t="n">
-        <v>439.3376773609109</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>802.4028610618137</v>
+        <v>709.8489468649682</v>
       </c>
       <c r="M46" t="n">
-        <v>1193.065291913769</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N46" t="n">
-        <v>1580.979053872041</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O46" t="n">
-        <v>1926.814038044861</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P46" t="n">
-        <v>2205.926923730927</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2330.042605135848</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
-        <v>2287.661780841449</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>2143.425529616349</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T46" t="n">
-        <v>1969.108547133948</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1727.455313207665</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1520.220457949852</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
-        <v>1278.252920860964</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>1097.71300291102</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y46" t="n">
-        <v>924.3700567155634</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8064,7 +8064,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>346.2692436516223</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8538,7 +8538,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>346.2692436516228</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,31 +8766,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9021,13 +9021,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9486,22 +9486,22 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>230.7151863772034</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720712</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9884,7 +9884,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119823</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987297522</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776707</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445199</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928253</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10188,7 +10188,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814623</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776707</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445199</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10434,7 +10434,7 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10823,13 +10823,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.145412571165</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10899,28 +10899,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>409.7003683229581</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>34.78428385445218</v>
@@ -11066,10 +11066,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928334</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119856</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776759</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.7842838544522</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11300,16 +11300,16 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>344.7025836476834</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,13 +11370,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23422,16 +23422,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23467,19 +23467,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>0.1721308728144209</v>
       </c>
       <c r="V13" t="n">
-        <v>119.2934573152683</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>33.55325026999154</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>107.4673633619783</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,25 +23887,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>105.3196631347579</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>124.705486540696</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24130,10 +24130,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>30.90698584635163</v>
+        <v>33.08849621799439</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24412,13 +24412,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>82.39383318338567</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24619,7 +24619,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.4192454642719</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037927</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,13 +24658,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>64.30500338171717</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>112.0435644700708</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>91.2307060180125</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437457</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.71057173897908</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>47.71373358834834</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.76109577523573</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>126.7804681602559</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25132,7 +25132,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>5.542233338928781e-13</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1286499.206001248</v>
+        <v>1301130.495151366</v>
       </c>
     </row>
   </sheetData>
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>164208.3539728567</v>
+      </c>
+      <c r="C2" t="n">
         <v>164208.3539728566</v>
-      </c>
-      <c r="C2" t="n">
-        <v>164208.3539728567</v>
       </c>
       <c r="D2" t="n">
         <v>164208.3539728566</v>
@@ -26323,10 +26323,10 @@
         <v>156411.6238950835</v>
       </c>
       <c r="F2" t="n">
-        <v>156411.6238950836</v>
+        <v>156411.6238950834</v>
       </c>
       <c r="G2" t="n">
-        <v>156411.6238950834</v>
+        <v>156411.6238950835</v>
       </c>
       <c r="H2" t="n">
         <v>156411.6238950835</v>
@@ -26338,22 +26338,22 @@
         <v>156411.6238950835</v>
       </c>
       <c r="K2" t="n">
-        <v>162728.8549381079</v>
+        <v>162728.854938108</v>
       </c>
       <c r="L2" t="n">
-        <v>164208.3539728567</v>
+        <v>164208.3539728568</v>
       </c>
       <c r="M2" t="n">
-        <v>164208.3539728567</v>
+        <v>164208.3539728568</v>
       </c>
       <c r="N2" t="n">
         <v>164208.3539728566</v>
       </c>
       <c r="O2" t="n">
-        <v>164208.3539728565</v>
+        <v>164208.3539728568</v>
       </c>
       <c r="P2" t="n">
-        <v>164208.3539728568</v>
+        <v>164208.3539728567</v>
       </c>
     </row>
     <row r="3">
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192594</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284534</v>
+        <v>44162.60530284564</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086616</v>
+        <v>10342.90680086688</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338371</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>199883.8198755738</v>
+        <v>44162.60530284566</v>
       </c>
     </row>
     <row r="4">
@@ -26424,7 +26424,7 @@
         <v>174490.7773218262</v>
       </c>
       <c r="E4" t="n">
-        <v>29303.5455523023</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="F4" t="n">
         <v>29303.54555230233</v>
@@ -26436,28 +26436,28 @@
         <v>29303.54555230233</v>
       </c>
       <c r="I4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.5455523023</v>
       </c>
       <c r="J4" t="n">
-        <v>29303.54555230225</v>
+        <v>29303.54555230231</v>
       </c>
       <c r="K4" t="n">
-        <v>47468.16806649866</v>
+        <v>47468.16806649883</v>
       </c>
       <c r="L4" t="n">
-        <v>51722.33279362283</v>
+        <v>51722.33279362281</v>
       </c>
       <c r="M4" t="n">
+        <v>51722.3327936228</v>
+      </c>
+      <c r="N4" t="n">
+        <v>51722.33279362279</v>
+      </c>
+      <c r="O4" t="n">
         <v>51722.33279362282</v>
       </c>
-      <c r="N4" t="n">
-        <v>51722.33279362283</v>
-      </c>
-      <c r="O4" t="n">
-        <v>51722.33279362287</v>
-      </c>
       <c r="P4" t="n">
-        <v>30134.53761950705</v>
+        <v>51722.33279362282</v>
       </c>
     </row>
     <row r="5">
@@ -26476,7 +26476,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871662</v>
@@ -26488,10 +26488,10 @@
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="J5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871667</v>
       </c>
       <c r="K5" t="n">
         <v>96628.20853022279</v>
@@ -26500,16 +26500,16 @@
         <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="P5" t="n">
-        <v>101591.2743431396</v>
+        <v>97715.1058200254</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26522,46 @@
         <v>-683109.3806269234</v>
       </c>
       <c r="C6" t="n">
-        <v>-93141.501412379</v>
+        <v>-93141.50141237903</v>
       </c>
       <c r="D6" t="n">
-        <v>-93141.50141237906</v>
+        <v>-93141.50141237903</v>
       </c>
       <c r="E6" t="n">
-        <v>-490039.2840828316</v>
+        <v>-490136.7432088038</v>
       </c>
       <c r="F6" t="n">
-        <v>35120.75239406461</v>
+        <v>35023.29326809233</v>
       </c>
       <c r="G6" t="n">
-        <v>35120.75239406448</v>
+        <v>35023.29326809234</v>
       </c>
       <c r="H6" t="n">
-        <v>35120.7523940645</v>
+        <v>35023.29326809237</v>
       </c>
       <c r="I6" t="n">
-        <v>35120.75239406453</v>
+        <v>35023.29326809244</v>
       </c>
       <c r="J6" t="n">
-        <v>-141302.4667985294</v>
+        <v>-141399.9259245006</v>
       </c>
       <c r="K6" t="n">
-        <v>-25530.1269614589</v>
+        <v>-25548.62069939368</v>
       </c>
       <c r="L6" t="n">
-        <v>4428.008558342292</v>
+        <v>4428.008558341709</v>
       </c>
       <c r="M6" t="n">
-        <v>-120030.0998746286</v>
+        <v>-120030.0998746285</v>
       </c>
       <c r="N6" t="n">
-        <v>14770.91535920835</v>
+        <v>14770.91535920843</v>
       </c>
       <c r="O6" t="n">
-        <v>14770.91535920827</v>
+        <v>14770.91535920858</v>
       </c>
       <c r="P6" t="n">
-        <v>-167401.2778653637</v>
+        <v>-29391.68994363715</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855667</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N2" t="n">
         <v>68.13189012964065</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="3">
@@ -26738,13 +26738,13 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
@@ -26753,16 +26753,16 @@
         <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541017</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541017</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541002</v>
@@ -26774,10 +26774,10 @@
         <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593298</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26790,7 +26790,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855667</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108402</v>
+        <v>12.9286335010836</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>34.04650311750859</v>
+        <v>55.20325662855707</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26981,13 +26981,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>-3.041335612225048e-13</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26999,7 +26999,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>259.3942951391982</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855667</v>
+        <v>55.20325662855704</v>
       </c>
     </row>
     <row r="3">
@@ -27379,10 +27379,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>251.1489332486591</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27394,7 +27394,7 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>19.65255383321517</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -27430,7 +27430,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27549,16 +27549,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,19 +27579,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>27.70305839063803</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>162.381444836091</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27616,25 +27616,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,7 +27667,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27676,13 +27676,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>94.438878235571</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>359.6445994745379</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,28 +27774,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>20.56176979023746</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>139.2006959480822</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,13 +27816,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27837,10 +27837,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27856,13 +27856,13 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>264.5083142795562</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27898,19 +27898,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>88.18486236358196</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>23.94594161440352</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28062,7 +28062,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>191.1927627130315</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28272,7 +28272,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>-1.961097950697877e-12</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855667</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855667</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855667</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855667</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855667</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855667</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855667</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855667</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855667</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855667</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855667</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855667</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855667</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855667</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855667</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855667</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855667</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855667</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855667</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855667</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855667</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855667</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855667</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855667</v>
+        <v>55.20325662855704</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="38">
@@ -30271,7 +30271,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30520,7 +30520,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859257</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
   </sheetData>
@@ -31039,13 +31039,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31063,22 +31063,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31151,16 +31151,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,13 +31221,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31236,7 +31236,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,22 +31458,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32464,7 +32464,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32473,31 +32473,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32546,31 +32546,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,7 +32637,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32649,19 +32649,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32701,7 +32701,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32710,31 +32710,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32783,31 +32783,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,7 +32874,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443622</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444951</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176654</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961209</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041495</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304449</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565528</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927196</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540896</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130947001</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647502</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446481</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104662</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
-        <v>14.61306122562946</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354898</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354106</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
-        <v>17.25001940386728</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127075</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215737</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622987</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358991</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724854</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>464.536285481347</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855533</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458555</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.994806871096</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
-        <v>110.895220109512</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.1761272367747</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361502</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1175069441680333</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081167</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990347</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298637</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
-        <v>105.8669502822385</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557937</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196128</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171323</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263754</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065636</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P28" t="n">
-        <v>181.1050413469076</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235693</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337681</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336905</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892256</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351828</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443622</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444951</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176654</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961209</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041495</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304449</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565528</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927196</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540896</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130947001</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647502</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446481</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104662</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
-        <v>14.61306122562946</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354898</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354106</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
-        <v>17.25001940386728</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127075</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215737</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622987</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358991</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724854</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N30" t="n">
-        <v>464.536285481347</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855533</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458555</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.994806871096</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
-        <v>110.895220109512</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.1761272367747</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361502</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1175069441680333</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081167</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990347</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298637</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
-        <v>105.8669502822385</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557937</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196128</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171323</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263754</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065636</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P31" t="n">
-        <v>181.1050413469076</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235693</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337681</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336905</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892256</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351828</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -34129,40 +34129,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34202,10 +34202,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215733</v>
@@ -34214,7 +34214,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
         <v>452.5584109724845</v>
@@ -34223,10 +34223,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
         <v>227.9948068710956</v>
@@ -34238,7 +34238,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34284,7 +34284,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34302,7 +34302,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P43" t="n">
         <v>181.1050413469073</v>
@@ -34314,10 +34314,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
         <v>0.08167695791351813</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844668</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>168.89895979748</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953988</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
-        <v>19.1778794245112</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502566</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798531</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353157</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905541</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430538</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H46" t="n">
-        <v>17.47215759311879</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
-        <v>138.937596729739</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702024</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909882</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316432</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P46" t="n">
-        <v>237.6785118802169</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.556281789588</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34711,10 +34711,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34784,19 +34784,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>410.0055067279162</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35015,7 +35015,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35258,19 +35258,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>410.0055067279167</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299086</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35741,13 +35741,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -36124,25 +36124,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>541.1395634276697</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,19 +36276,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36297,7 +36297,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415054</v>
       </c>
       <c r="K23" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,13 +36437,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980129</v>
@@ -36452,7 +36452,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36513,19 +36513,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36534,7 +36534,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415084</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303338</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109081</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221126</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081129</v>
+        <v>803.5809304081101</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951482</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109132</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502054</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349123</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953158</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005183</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>249.257704956025</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504671</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980136</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411089</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.502597509196</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209236</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556572</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299109</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799289</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789729</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.276877805604</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206032</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118011</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187496</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415084</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303338</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109081</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221054</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081129</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951482</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109132</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502054</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349844</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953158</v>
+        <v>137.9476282330529</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005183</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>249.257704956025</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504671</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980136</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411089</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.502597509196</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209236</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412239</v>
+        <v>67.71102679412259</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584675</v>
+        <v>206.9056851584676</v>
       </c>
       <c r="L31" t="n">
         <v>305.4174435084856</v>
@@ -37002,13 +37002,13 @@
         <v>328.4801344341607</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491599</v>
+        <v>291.44060814916</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403577</v>
+        <v>233.5868572403579</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043163</v>
+        <v>94.42895660043182</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K32" t="n">
         <v>528.689756130333</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,7 +37154,7 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>598.8335596281419</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980128</v>
@@ -37163,13 +37163,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37242,7 +37242,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37400,13 +37400,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37473,13 +37473,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O37" t="n">
         <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303332</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221125</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081133</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,25 +37862,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092005</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37944,7 +37944,7 @@
         <v>318.3460770095692</v>
       </c>
       <c r="M43" t="n">
-        <v>342.441731308613</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
         <v>341.4087679352442</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407863</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265652</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>852.7555845359025</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908545</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636242</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152072</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609567</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859624</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.5535532316588</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K46" t="n">
-        <v>253.0227961629121</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7325087887907</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M46" t="n">
-        <v>394.6085160120764</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861327</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>349.3282668412323</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>281.932207763703</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3693751564862</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
